--- a/Classification_Features.xlsx
+++ b/Classification_Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacq\Documents\Project 3_Machine Learning\Draft_Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6F4D67-A066-46E4-91C6-1CBA0506B1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58E8DE3-7051-4A64-B369-1F7263E12A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89E05C29-D36D-413B-8937-EBB58D60D682}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{89E05C29-D36D-413B-8937-EBB58D60D682}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CLASSIFICATIONS</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +111,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,12 +142,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,41 +479,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135ED52C-50AC-4A94-9752-679A5B45BC27}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -487,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB987B-5405-4670-BA80-6937F2F3E211}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
